--- a/testcases/基础界面查询接口.xlsx
+++ b/testcases/基础界面查询接口.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="261">
   <si>
     <t>路径</t>
   </si>
@@ -739,6 +739,84 @@
   </si>
   <si>
     <t>[{"jmespath":"retStatus","exp":"1"},{"jmespath":"length(retData.results)","exp":10}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询最近使用分类</t>
+  </si>
+  <si>
+    <t>/sysback/choose/category/getRecentCategoryList</t>
+  </si>
+  <si>
+    <t>{"oper": "ljw"}</t>
+  </si>
+  <si>
+    <t>{"menuId": "238", "buttonId": "1"}</t>
+  </si>
+  <si>
+    <t>新增商品获取分类</t>
+  </si>
+  <si>
+    <t>/sysback/choose/category/getLevelOneCategoryList</t>
+  </si>
+  <si>
+    <t>查询品牌</t>
+  </si>
+  <si>
+    <t>/sysback/addsingleproduct/basicinfo/getPagerByBrandAndCategory</t>
+  </si>
+  <si>
+    <t>{"nowPage": "1", "pageShow": "10", "brandName": "", "categoryUuid": "13000", "notInUuids": ""}</t>
+  </si>
+  <si>
+    <t>查询计量单位</t>
+  </si>
+  <si>
+    <t>{"nowPage": 1, "pageShow": 10, "searchParam": "[{\"name\":\"unitName\",\"value\":\"\"},{\"name\":\"unitName_q\",\"value\":\"Like\"}]"}</t>
+  </si>
+  <si>
+    <t>生成商品助记码</t>
+  </si>
+  <si>
+    <t>/sysback/addsingleproduct/basicinfo/getSpuHelpCode</t>
+  </si>
+  <si>
+    <t>{"productNameType": "1", "productName": "sad撒大所多", "brandName": "菲尼克斯"}</t>
+  </si>
+  <si>
+    <t>获取销售区域</t>
+  </si>
+  <si>
+    <t>/sysback/supplyinfofromsrcm/getAllAreaFromScrm</t>
+  </si>
+  <si>
+    <t>查询供应商</t>
+  </si>
+  <si>
+    <t>/sysback/supplyinfofromsrcm/getSupplyPageFromScrm</t>
+  </si>
+  <si>
+    <t>{"nowPage": "1", "pageShow": "10", "supplyName": ""}</t>
+  </si>
+  <si>
+    <t>{"menuId": "239", "buttonId": "147"}</t>
+  </si>
+  <si>
+    <t>查询指定供应商</t>
+  </si>
+  <si>
+    <t>{"nowPage": "1", "pageShow": "10", "supplyName": "11297"}</t>
+  </si>
+  <si>
+    <t>[{"jmespath": "retStatus", "exp":"1"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jmespath": "retStatus", "exp":"1"},{"jmespath":"retData.results[0].supplierName", "exp":"金汤水不漏","type":"in"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jmespath": "retStatus", "exp":"1"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2789,6 +2867,214 @@
         <v>1</v>
       </c>
     </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>239</v>
+      </c>
+      <c r="H59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s">
+        <v>239</v>
+      </c>
+      <c r="H60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" t="s">
+        <v>239</v>
+      </c>
+      <c r="H61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>239</v>
+      </c>
+      <c r="H63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>254</v>
+      </c>
+      <c r="F65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s">
+        <v>255</v>
+      </c>
+      <c r="H65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>257</v>
+      </c>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s">
+        <v>255</v>
+      </c>
+      <c r="H66" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcases/基础界面查询接口.xlsx
+++ b/testcases/基础界面查询接口.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="265">
   <si>
     <t>路径</t>
   </si>
@@ -817,6 +820,21 @@
   </si>
   <si>
     <t>[{"jmespath": "retStatus", "exp":"1"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sysback/addsingleproduct/basicinfo/getSpuHelpCodeMultipart</t>
+  </si>
+  <si>
+    <t>新增自定义规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"productName": "自定义规格1"}, {"productName": "自定义规格2"}, {"productName": "自定义规格3"}, {"productName": "自定义规格4"}, {"productName": "自定义规格5"}, {"productName": "自定义规格6"}, {"productName": "自定义规格7"}, {"productName": "自定义规格8"}, {"productName": "自定义规格9"}, {"productName": "自定义规格10"}, {"productName": "自定义规格11"}, {"productName": "自定义规格12"}, {"productName": "自定义规格13"}, {"productName": "自定义规格14"}, {"productName": "自定义规格15"}, {"productName": "自定义规格16"}, {"productName": "自定义规格17"}, {"productName": "自定义规格18"}, {"productName": "自定义规格19"}, {"productName": "自定义规格20"}, {"productName": "自定义规格21"}, {"productName": "自定义规格22"}, {"productName": "自定义规格23"}, {"productName": "自定义规格24"}, {"productName": "自定义规格25"}, {"productName": "自定义规格26"}, {"productName": "自定义规格27"}, {"productName": "自定义规格28"}, {"productName": "自定义规格29"}, {"productName": "自定义规格30"}, {"productName": "自定义规格31"}, {"productName": "自定义规格32"}, {"productName": "自定义规格33"}, {"productName": "自定义规格34"}, {"productName": "自定义规格35"}, {"productName": "自定义规格36"}, {"productName": "自定义规格37"}, {"productName": "自定义规格38"}, {"productName": "自定义规格39"}, {"productName": "自定义规格40"}, {"productName": "自定义规格41"}, {"productName": "自定义规格42"}, {"productName": "自定义规格43"}, {"productName": "自定义规格44"}, {"productName": "自定义规格45"}, {"productName": "自定义规格46"}, {"productName": "自定义规格47"}, {"productName": "自定义规格48"}, {"productName": "自定义规格49"}, {"productName": "自定义规格50"}, {"productName": "自定义规格51"}, {"productName": "自定义规格52"}, {"productName": "自定义规格53"}, {"productName": "自定义规格54"}, {"productName": "自定义规格55"}, {"productName": "自定义规格56"}, {"productName": "自定义规格57"}, {"productName": "自定义规格58"}, {"productName": "自定义规格59"}, {"productName": "自定义规格60"}, {"productName": "自定义规格61"}, {"productName": "自定义规格62"}, {"productName": "自定义规格63"}, {"productName": "自定义规格64"}, {"productName": "自定义规格65"}, {"productName": "自定义规格66"}, {"productName": "自定义规格67"}, {"productName": "自定义规格68"}, {"productName": "自定义规格69"}, {"productName": "自定义规格70"}, {"productName": "自定义规格71"}, {"productName": "自定义规格72"}, {"productName": "自定义规格73"}, {"productName": "自定义规格74"}, {"productName": "自定义规格75"}, {"productName": "自定义规格76"}, {"productName": "自定义规格77"}, {"productName": "自定义规格78"}, {"productName": "自定义规格79"}, {"productName": "自定义规格80"}, {"productName": "自定义规格81"}, {"productName": "自定义规格82"}, {"productName": "自定义规格83"}, {"productName": "自定义规格84"}, {"productName": "自定义规格85"}, {"productName": "自定义规格86"}, {"productName": "自定义规格87"}, {"productName": "自定义规格88"}, {"productName": "自定义规格89"}, {"productName": "自定义规格90"}, {"productName": "自定义规格91"}, {"productName": "自定义规格92"}, {"productName": "自定义规格93"}, {"productName": "自定义规格94"}, {"productName": "自定义规格95"}, {"productName": "自定义规格96"}, {"productName": "自定义规格97"}, {"productName": "自定义规格98"}, {"productName": "自定义规格99"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jmespath":"retStatus", "exp":"1"}, {"jmespath":"retData[*].productName", "exp":["自定义规格1","自定义规格2","自定义规格3","自定义规格4","自定义规格5","自定义规格6","自定义规格7","自定义规格8","自定义规格9","自定义规格10","自定义规格11","自定义规格12","自定义规格13","自定义规格14","自定义规格15","自定义规格16","自定义规格17","自定义规格18","自定义规格19","自定义规格20","自定义规格21","自定义规格22","自定义规格23","自定义规格24","自定义规格25","自定义规格26","自定义规格27","自定义规格28","自定义规格29","自定义规格30","自定义规格31","自定义规格32","自定义规格33","自定义规格34","自定义规格35","自定义规格36","自定义规格37","自定义规格38","自定义规格39","自定义规格40","自定义规格41","自定义规格42","自定义规格43","自定义规格44","自定义规格45","自定义规格46","自定义规格47","自定义规格48","自定义规格49","自定义规格50","自定义规格51","自定义规格52","自定义规格53","自定义规格54","自定义规格55","自定义规格56","自定义规格57","自定义规格58","自定义规格59","自定义规格60","自定义规格61","自定义规格62","自定义规格63","自定义规格64","自定义规格65","自定义规格66","自定义规格67","自定义规格68","自定义规格69","自定义规格70","自定义规格71","自定义规格72","自定义规格73","自定义规格74","自定义规格75","自定义规格76","自定义规格77","自定义规格78","自定义规格79","自定义规格80","自定义规格81","自定义规格82","自定义规格83","自定义规格84","自定义规格85","自定义规格86","自定义规格87","自定义规格88","自定义规格89","自定义规格90","自定义规格91","自定义规格92","自定义规格93","自定义规格94","自定义规格95","自定义规格96","自定义规格97","自定义规格98","自定义规格99"]}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1166,10 +1184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3075,6 +3094,32 @@
         <v>259</v>
       </c>
     </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>263</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>239</v>
+      </c>
+      <c r="H67" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
